--- a/docs/TSP_tuloksia.xlsx
+++ b/docs/TSP_tuloksia.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Pituus" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="19">
   <si>
     <t>Lkm = 4</t>
   </si>
@@ -39,13 +39,7 @@
     <t>Greedy</t>
   </si>
   <si>
-    <t>Algoritmi (aika)</t>
-  </si>
-  <si>
     <t>Algoritmi (pituus)</t>
-  </si>
-  <si>
-    <t>Lkm = 5</t>
   </si>
   <si>
     <t>Lkm = 8</t>
@@ -61,6 +55,24 @@
   </si>
   <si>
     <t>Lkm = 30</t>
+  </si>
+  <si>
+    <t>Algoritmi (aika ms)</t>
+  </si>
+  <si>
+    <t>Ero</t>
+  </si>
+  <si>
+    <t>Ero(average)</t>
+  </si>
+  <si>
+    <t>Aika(average)</t>
+  </si>
+  <si>
+    <t>Lkm=50</t>
+  </si>
+  <si>
+    <t>Lkm=95</t>
   </si>
 </sst>
 </file>
@@ -104,9 +116,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -119,6 +133,773 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Aika!$S$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prim(DFS)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Aika!$T$36:$Y$36</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Lkm = 4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Lkm = 6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Lkm = 8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Lkm = 10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Lkm = 12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Lkm = 16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Aika!$T$37:$Y$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>153.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>272.39999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Aika!$S$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prim(Stack)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Aika!$T$36:$Y$36</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Lkm = 4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Lkm = 6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Lkm = 8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Lkm = 10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Lkm = 12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Lkm = 16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Aika!$T$38:$Y$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>161.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>190.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>264</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Aika!$S$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Greedy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Aika!$T$36:$Y$36</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Lkm = 4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Lkm = 6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Lkm = 8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Lkm = 10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Lkm = 12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Lkm = 16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Aika!$T$39:$Y$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="158285824"/>
+        <c:axId val="158287360"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="158285824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="158287360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="158287360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="158285824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Aika!$D$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lkm=50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Aika!$J$44:$J$46</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Greedy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Prim(DFS)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Prim(Stack)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Aika!$D$44:$D$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>423.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1182.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1732</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Aika!$E$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lkm=95</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Aika!$J$44:$J$46</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Greedy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Prim(DFS)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Prim(Stack)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Aika!$E$44:$E$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1983.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3470.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="166464128"/>
+        <c:axId val="166482688"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="166464128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="166482688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="166482688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="166464128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Aika!$B$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lkm=50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Aika!$A$44:$A$46</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Greedy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Prim(DFS)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Prim(Stack)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Aika!$B$44:$B$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Aika!$C$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lkm=95</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Aika!$A$44:$A$46</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Greedy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Prim(DFS)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Prim(Stack)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Aika!$C$44:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="166566528"/>
+        <c:axId val="168956288"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="166566528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="168956288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="168956288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="166566528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>280987</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="25" name="Chart 24"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>661987</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="26" name="Chart 25"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,325 +1189,2641 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I16"/>
+  <dimension ref="A1:Z46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
-    <col min="4" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="9" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" customWidth="1"/>
+    <col min="9" max="9" width="3.140625" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" customWidth="1"/>
+    <col min="14" max="15" width="8.42578125" customWidth="1"/>
+    <col min="16" max="17" width="8.28515625" customWidth="1"/>
+    <col min="18" max="18" width="2.140625" customWidth="1"/>
+    <col min="19" max="19" width="17.140625" customWidth="1"/>
+    <col min="20" max="21" width="7.85546875" customWidth="1"/>
+    <col min="22" max="22" width="8" customWidth="1"/>
+    <col min="23" max="23" width="8.42578125" customWidth="1"/>
+    <col min="24" max="24" width="8.85546875" customWidth="1"/>
+    <col min="25" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1" t="s">
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="E2" s="2">
+        <v>68.61</v>
+      </c>
+      <c r="F2" s="2">
+        <v>8247.24</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>214</v>
+      </c>
+      <c r="L2">
+        <v>146</v>
+      </c>
+      <c r="M2">
+        <v>110</v>
+      </c>
+      <c r="N2">
+        <v>246</v>
+      </c>
+      <c r="O2">
+        <v>193</v>
+      </c>
+      <c r="S2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="F3" s="2">
+        <v>42.11</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3435.92</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3"/>
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>214</v>
+      </c>
+      <c r="L3">
+        <v>146</v>
+      </c>
+      <c r="M3">
+        <v>110</v>
+      </c>
+      <c r="N3">
+        <v>246</v>
+      </c>
+      <c r="O3">
+        <v>193</v>
+      </c>
+      <c r="P3">
+        <v>172</v>
+      </c>
+      <c r="Q3"/>
+      <c r="S3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>226</v>
+      </c>
+      <c r="L4">
+        <v>223</v>
+      </c>
+      <c r="M4">
+        <v>120</v>
+      </c>
+      <c r="N4">
+        <v>294</v>
+      </c>
+      <c r="O4">
+        <v>338</v>
+      </c>
+      <c r="P4">
+        <v>359</v>
+      </c>
+      <c r="Q4">
+        <v>874</v>
+      </c>
+      <c r="S4" t="s">
+        <v>4</v>
+      </c>
+      <c r="T4">
+        <f>K4-K3</f>
+        <v>12</v>
+      </c>
+      <c r="U4">
+        <f>L4-L3</f>
+        <v>77</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:Z4" si="0">M4-M3</f>
+        <v>10</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="0"/>
+        <v>187</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="0"/>
+        <v>874</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="J5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>214</v>
+      </c>
+      <c r="L5">
+        <v>216</v>
+      </c>
+      <c r="M5">
+        <v>120</v>
+      </c>
+      <c r="N5">
+        <v>330</v>
+      </c>
+      <c r="O5">
+        <v>279</v>
+      </c>
+      <c r="P5">
+        <v>384</v>
+      </c>
+      <c r="Q5">
+        <v>992</v>
+      </c>
+      <c r="S5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <f>K5-K3</f>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <f>L5-L3</f>
+        <v>70</v>
+      </c>
+      <c r="V5">
+        <f t="shared" ref="V5:Z5" si="1">M5-M3</f>
+        <v>10</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="1"/>
+        <v>212</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="1"/>
+        <v>992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="J6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="2">
+        <v>214</v>
+      </c>
+      <c r="L6" s="2">
+        <v>169</v>
+      </c>
+      <c r="M6">
+        <v>120</v>
+      </c>
+      <c r="N6">
+        <v>332</v>
+      </c>
+      <c r="O6">
+        <v>286</v>
+      </c>
+      <c r="P6">
+        <v>238</v>
+      </c>
+      <c r="Q6">
+        <v>398</v>
+      </c>
+      <c r="S6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6">
+        <f>K6-K3</f>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f t="shared" ref="U6:Z6" si="2">L6-L3</f>
+        <v>23</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="2"/>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="T8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B9" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="C9">
+        <v>0.01</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="E9" s="2">
+        <v>67.08</v>
+      </c>
+      <c r="F9" s="2">
+        <v>8353.8799999999992</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="J9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>197</v>
+      </c>
+      <c r="L9" s="2">
+        <v>133</v>
+      </c>
+      <c r="M9">
+        <v>293</v>
+      </c>
+      <c r="N9">
+        <v>190</v>
+      </c>
+      <c r="O9">
+        <v>223</v>
+      </c>
+      <c r="S9" t="s">
+        <v>2</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>3.1E-2</v>
-      </c>
-      <c r="H5">
-        <v>4.3600000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B10" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3.29</v>
+      </c>
+      <c r="F10" s="2">
+        <v>56.72</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2756.69</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="J10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>197</v>
+      </c>
+      <c r="L10" s="2">
+        <v>133</v>
+      </c>
+      <c r="M10">
+        <v>293</v>
+      </c>
+      <c r="N10">
+        <v>190</v>
+      </c>
+      <c r="O10">
+        <v>223</v>
+      </c>
+      <c r="P10">
+        <v>179</v>
+      </c>
+      <c r="S10" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B11" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>197</v>
+      </c>
+      <c r="L11" s="2">
+        <v>149</v>
+      </c>
+      <c r="M11">
+        <v>347</v>
+      </c>
+      <c r="N11">
+        <v>357</v>
+      </c>
+      <c r="O11">
+        <v>409</v>
+      </c>
+      <c r="P11">
+        <v>516</v>
+      </c>
+      <c r="Q11">
+        <v>407</v>
+      </c>
+      <c r="S11" t="s">
+        <v>4</v>
+      </c>
+      <c r="T11">
+        <f>K11-K10</f>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f>L11-L10</f>
+        <v>16</v>
+      </c>
+      <c r="V11">
+        <f t="shared" ref="V11" si="3">M11-M10</f>
+        <v>54</v>
+      </c>
+      <c r="W11">
+        <f t="shared" ref="W11" si="4">N11-N10</f>
+        <v>167</v>
+      </c>
+      <c r="X11">
+        <f t="shared" ref="X11" si="5">O11-O10</f>
+        <v>186</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" ref="Y11" si="6">P11-P10</f>
+        <v>337</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" ref="Z11" si="7">Q11-Q10</f>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B12" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="J12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>252</v>
+      </c>
+      <c r="L12" s="2">
+        <v>168</v>
+      </c>
+      <c r="M12">
+        <v>347</v>
+      </c>
+      <c r="N12">
+        <v>347</v>
+      </c>
+      <c r="O12">
+        <v>469</v>
+      </c>
+      <c r="P12">
+        <v>498</v>
+      </c>
+      <c r="Q12">
+        <v>767</v>
+      </c>
+      <c r="S12" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12">
+        <f>K12-K10</f>
+        <v>55</v>
+      </c>
+      <c r="U12">
+        <f>L12-L10</f>
+        <v>35</v>
+      </c>
+      <c r="V12">
+        <f t="shared" ref="V12" si="8">M12-M10</f>
+        <v>54</v>
+      </c>
+      <c r="W12">
+        <f t="shared" ref="W12" si="9">N12-N10</f>
+        <v>157</v>
+      </c>
+      <c r="X12">
+        <f t="shared" ref="X12" si="10">O12-O10</f>
+        <v>246</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" ref="Y12" si="11">P12-P10</f>
+        <v>319</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" ref="Z12" si="12">Q12-Q10</f>
+        <v>767</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B13" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="J13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="2">
+        <v>197</v>
+      </c>
+      <c r="L13" s="2">
+        <v>133</v>
+      </c>
+      <c r="M13">
+        <v>347</v>
+      </c>
+      <c r="N13">
+        <v>199</v>
+      </c>
+      <c r="O13">
+        <v>297</v>
+      </c>
+      <c r="P13">
+        <v>286</v>
+      </c>
+      <c r="Q13">
+        <v>742</v>
+      </c>
+      <c r="S13" t="s">
+        <v>6</v>
+      </c>
+      <c r="T13">
+        <f>K13-K10</f>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f t="shared" ref="U13" si="13">L13-L10</f>
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <f t="shared" ref="V13" si="14">M13-M10</f>
+        <v>54</v>
+      </c>
+      <c r="W13">
+        <f t="shared" ref="W13" si="15">N13-N10</f>
+        <v>9</v>
+      </c>
+      <c r="X13">
+        <f t="shared" ref="X13" si="16">O13-O10</f>
+        <v>74</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" ref="Y13" si="17">P13-P10</f>
+        <v>107</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" ref="Z13" si="18">Q13-Q10</f>
+        <v>742</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="E15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="B12">
+      <c r="B16" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C16">
+        <v>0.01</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1.39</v>
+      </c>
+      <c r="E16" s="2">
+        <v>68.14</v>
+      </c>
+      <c r="F16" s="2">
+        <v>8312.7199999999993</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="J16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>200</v>
+      </c>
+      <c r="L16" s="2">
+        <v>187</v>
+      </c>
+      <c r="M16">
+        <v>154</v>
+      </c>
+      <c r="N16">
+        <v>215</v>
+      </c>
+      <c r="O16">
+        <v>132</v>
+      </c>
+      <c r="S16" t="s">
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="E17" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>11.26</v>
+      </c>
+      <c r="G17" s="2">
+        <v>4265.6099999999997</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="J17" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>200</v>
+      </c>
+      <c r="L17" s="2">
+        <v>187</v>
+      </c>
+      <c r="M17">
+        <v>154</v>
+      </c>
+      <c r="N17">
+        <v>215</v>
+      </c>
+      <c r="O17">
+        <v>132</v>
+      </c>
+      <c r="P17">
+        <v>215</v>
+      </c>
+      <c r="S17" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H18">
+        <v>0.64</v>
+      </c>
+      <c r="J18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>200</v>
+      </c>
+      <c r="L18" s="2">
+        <v>249</v>
+      </c>
+      <c r="M18">
+        <v>258</v>
+      </c>
+      <c r="N18">
+        <v>349</v>
+      </c>
+      <c r="O18">
+        <v>259</v>
+      </c>
+      <c r="P18">
+        <v>512</v>
+      </c>
+      <c r="Q18">
+        <v>600</v>
+      </c>
+      <c r="S18" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18">
+        <f>K18-K17</f>
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <f>L18-L17</f>
+        <v>62</v>
+      </c>
+      <c r="V18">
+        <f t="shared" ref="V18" si="19">M18-M17</f>
+        <v>104</v>
+      </c>
+      <c r="W18">
+        <f t="shared" ref="W18" si="20">N18-N17</f>
+        <v>134</v>
+      </c>
+      <c r="X18">
+        <f t="shared" ref="X18" si="21">O18-O17</f>
+        <v>127</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" ref="Y18" si="22">P18-P17</f>
+        <v>297</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" ref="Z18" si="23">Q18-Q17</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="J19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>200</v>
+      </c>
+      <c r="L19" s="2">
         <v>250</v>
       </c>
-      <c r="C12">
-        <v>84</v>
-      </c>
-      <c r="D12">
-        <v>143</v>
-      </c>
-      <c r="E12">
-        <v>87</v>
-      </c>
-      <c r="F12">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="M19">
+        <v>258</v>
+      </c>
+      <c r="N19">
+        <v>337</v>
+      </c>
+      <c r="O19">
+        <v>328</v>
+      </c>
+      <c r="P19">
+        <v>562</v>
+      </c>
+      <c r="Q19">
+        <v>816</v>
+      </c>
+      <c r="S19" t="s">
+        <v>5</v>
+      </c>
+      <c r="T19">
+        <f>K19-K17</f>
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <f>L19-L17</f>
+        <v>63</v>
+      </c>
+      <c r="V19">
+        <f t="shared" ref="V19" si="24">M19-M17</f>
+        <v>104</v>
+      </c>
+      <c r="W19">
+        <f t="shared" ref="W19" si="25">N19-N17</f>
+        <v>122</v>
+      </c>
+      <c r="X19">
+        <f t="shared" ref="X19" si="26">O19-O17</f>
+        <v>196</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" ref="Y19" si="27">P19-P17</f>
+        <v>347</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" ref="Z19" si="28">Q19-Q17</f>
+        <v>816</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="J20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="2">
+        <v>200</v>
+      </c>
+      <c r="L20" s="2">
+        <v>188</v>
+      </c>
+      <c r="M20">
+        <v>154</v>
+      </c>
+      <c r="N20">
+        <v>263</v>
+      </c>
+      <c r="O20">
+        <v>132</v>
+      </c>
+      <c r="P20">
+        <v>370</v>
+      </c>
+      <c r="Q20">
+        <v>418</v>
+      </c>
+      <c r="S20" t="s">
+        <v>6</v>
+      </c>
+      <c r="T20">
+        <f>K20-K17</f>
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <f t="shared" ref="U20" si="29">L20-L17</f>
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <f t="shared" ref="V20" si="30">M20-M17</f>
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <f t="shared" ref="W20" si="31">N20-N17</f>
+        <v>48</v>
+      </c>
+      <c r="X20">
+        <f t="shared" ref="X20" si="32">O20-O17</f>
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" ref="Y20" si="33">P20-P17</f>
+        <v>155</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" ref="Z20" si="34">Q20-Q17</f>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="C23">
+        <v>0.01</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="E23" s="2">
+        <v>66.69</v>
+      </c>
+      <c r="F23" s="2">
+        <v>30</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="J23" t="s">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>212</v>
+      </c>
+      <c r="L23" s="2">
+        <v>196</v>
+      </c>
+      <c r="M23">
+        <v>219</v>
+      </c>
+      <c r="N23">
+        <v>167</v>
+      </c>
+      <c r="O23">
+        <v>163</v>
+      </c>
+      <c r="S23" t="s">
+        <v>2</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>3</v>
       </c>
-      <c r="B13">
+      <c r="B24" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="E24" s="2">
+        <v>4.26</v>
+      </c>
+      <c r="F24" s="2">
+        <v>8236.8700000000008</v>
+      </c>
+      <c r="G24" s="2">
+        <v>12563.16</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="J24" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24">
+        <v>212</v>
+      </c>
+      <c r="L24" s="2">
+        <v>196</v>
+      </c>
+      <c r="M24">
+        <v>219</v>
+      </c>
+      <c r="N24">
+        <v>167</v>
+      </c>
+      <c r="O24">
+        <v>163</v>
+      </c>
+      <c r="P24" s="2">
+        <v>257</v>
+      </c>
+      <c r="S24" t="s">
+        <v>3</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H25">
+        <v>0.65</v>
+      </c>
+      <c r="J25" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25">
+        <v>218</v>
+      </c>
+      <c r="L25" s="2">
+        <v>208</v>
+      </c>
+      <c r="M25">
+        <v>260</v>
+      </c>
+      <c r="N25">
+        <v>286</v>
+      </c>
+      <c r="O25">
+        <v>259</v>
+      </c>
+      <c r="P25">
+        <v>568</v>
+      </c>
+      <c r="Q25">
+        <v>864</v>
+      </c>
+      <c r="S25" t="s">
+        <v>4</v>
+      </c>
+      <c r="T25">
+        <f>K25-K24</f>
+        <v>6</v>
+      </c>
+      <c r="U25">
+        <f>L25-L24</f>
+        <v>12</v>
+      </c>
+      <c r="V25">
+        <f t="shared" ref="V25" si="35">M25-M24</f>
+        <v>41</v>
+      </c>
+      <c r="W25">
+        <f t="shared" ref="W25" si="36">N25-N24</f>
+        <v>119</v>
+      </c>
+      <c r="X25">
+        <f t="shared" ref="X25" si="37">O25-O24</f>
+        <v>96</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" ref="Y25" si="38">P25-P24</f>
+        <v>311</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" ref="Z25" si="39">Q25-Q24</f>
+        <v>864</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="J26" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26">
+        <v>218</v>
+      </c>
+      <c r="L26" s="2">
+        <v>196</v>
+      </c>
+      <c r="M26">
+        <v>296</v>
+      </c>
+      <c r="N26">
+        <v>367</v>
+      </c>
+      <c r="O26">
+        <v>323</v>
+      </c>
+      <c r="P26">
+        <v>561</v>
+      </c>
+      <c r="Q26">
+        <v>1089</v>
+      </c>
+      <c r="S26" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26">
+        <f>K26-K24</f>
+        <v>6</v>
+      </c>
+      <c r="U26">
+        <f>L26-L24</f>
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <f t="shared" ref="V26" si="40">M26-M24</f>
+        <v>77</v>
+      </c>
+      <c r="W26">
+        <f t="shared" ref="W26" si="41">N26-N24</f>
+        <v>200</v>
+      </c>
+      <c r="X26">
+        <f t="shared" ref="X26" si="42">O26-O24</f>
+        <v>160</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" ref="Y26" si="43">P26-P24</f>
+        <v>304</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" ref="Z26" si="44">Q26-Q24</f>
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="J27" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27" s="2">
+        <v>218</v>
+      </c>
+      <c r="L27" s="2">
+        <v>196</v>
+      </c>
+      <c r="M27">
+        <v>252</v>
+      </c>
+      <c r="N27">
         <v>250</v>
       </c>
-      <c r="C13">
-        <v>84</v>
-      </c>
-      <c r="D13">
-        <v>143</v>
-      </c>
-      <c r="E13">
-        <v>87</v>
-      </c>
-      <c r="F13">
-        <v>209</v>
-      </c>
-      <c r="G13">
-        <v>182</v>
-      </c>
-      <c r="H13">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="O27">
+        <v>298</v>
+      </c>
+      <c r="P27">
+        <v>346</v>
+      </c>
+      <c r="Q27">
+        <v>468</v>
+      </c>
+      <c r="S27" t="s">
+        <v>6</v>
+      </c>
+      <c r="T27">
+        <f>K27-K24</f>
+        <v>6</v>
+      </c>
+      <c r="U27">
+        <f t="shared" ref="U27" si="45">L27-L24</f>
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <f t="shared" ref="V27" si="46">M27-M24</f>
+        <v>33</v>
+      </c>
+      <c r="W27">
+        <f t="shared" ref="W27" si="47">N27-N24</f>
+        <v>83</v>
+      </c>
+      <c r="X27">
+        <f t="shared" ref="X27" si="48">O27-O24</f>
+        <v>135</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" ref="Y27" si="49">P27-P24</f>
+        <v>89</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" ref="Z27" si="50">Q27-Q24</f>
+        <v>468</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z29" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C30">
+        <v>0.01</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="E30" s="2">
+        <v>71.28</v>
+      </c>
+      <c r="F30" s="2">
+        <v>8300.9500000000007</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="J30" t="s">
+        <v>2</v>
+      </c>
+      <c r="K30">
+        <v>159</v>
+      </c>
+      <c r="L30" s="2">
+        <v>184</v>
+      </c>
+      <c r="M30">
+        <v>186</v>
+      </c>
+      <c r="N30">
+        <v>233</v>
+      </c>
+      <c r="O30">
+        <v>227</v>
+      </c>
+      <c r="S30" t="s">
+        <v>2</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="E31" s="2">
+        <v>4.97</v>
+      </c>
+      <c r="F31" s="2">
+        <v>63.94</v>
+      </c>
+      <c r="G31" s="2">
+        <v>5142.29</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="J31" t="s">
+        <v>3</v>
+      </c>
+      <c r="K31">
+        <v>159</v>
+      </c>
+      <c r="L31" s="2">
+        <v>184</v>
+      </c>
+      <c r="M31">
+        <v>186</v>
+      </c>
+      <c r="N31">
+        <v>233</v>
+      </c>
+      <c r="O31">
+        <v>227</v>
+      </c>
+      <c r="P31">
+        <v>197</v>
+      </c>
+      <c r="S31" t="s">
+        <v>3</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>4</v>
       </c>
-      <c r="B14">
+      <c r="B32" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="H32">
+        <v>0.64</v>
+      </c>
+      <c r="J32" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32">
+        <v>233</v>
+      </c>
+      <c r="L32" s="2">
+        <v>221</v>
+      </c>
+      <c r="M32">
         <v>258</v>
       </c>
-      <c r="C14">
-        <v>84</v>
-      </c>
-      <c r="D14">
-        <v>222</v>
-      </c>
-      <c r="E14">
-        <v>167</v>
-      </c>
-      <c r="F14">
-        <v>525</v>
-      </c>
-      <c r="G14">
-        <v>299</v>
-      </c>
-      <c r="H14">
-        <v>507</v>
-      </c>
-      <c r="I14">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="N32">
+        <v>277</v>
+      </c>
+      <c r="O32">
+        <v>439</v>
+      </c>
+      <c r="P32">
+        <v>427</v>
+      </c>
+      <c r="Q32">
+        <v>471</v>
+      </c>
+      <c r="S32" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32">
+        <f>K32-K31</f>
+        <v>74</v>
+      </c>
+      <c r="U32">
+        <f>L32-L31</f>
+        <v>37</v>
+      </c>
+      <c r="V32">
+        <f t="shared" ref="V32" si="51">M32-M31</f>
+        <v>72</v>
+      </c>
+      <c r="W32">
+        <f t="shared" ref="W32" si="52">N32-N31</f>
+        <v>44</v>
+      </c>
+      <c r="X32">
+        <f t="shared" ref="X32" si="53">O32-O31</f>
+        <v>212</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" ref="Y32" si="54">P32-P31</f>
+        <v>230</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" ref="Z32" si="55">Q32-Q31</f>
+        <v>471</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>5</v>
       </c>
-      <c r="B15">
+      <c r="B33" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="J33" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33">
+        <v>268</v>
+      </c>
+      <c r="L33" s="2">
+        <v>184</v>
+      </c>
+      <c r="M33">
         <v>258</v>
       </c>
-      <c r="C15">
-        <v>84</v>
-      </c>
-      <c r="D15">
-        <v>172</v>
-      </c>
-      <c r="E15">
-        <v>136</v>
-      </c>
-      <c r="F15">
-        <v>401</v>
-      </c>
-      <c r="G15">
-        <v>423</v>
-      </c>
-      <c r="H15">
-        <v>344</v>
-      </c>
-      <c r="I15">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="N33">
+        <v>478</v>
+      </c>
+      <c r="O33">
+        <v>491</v>
+      </c>
+      <c r="P33">
+        <v>335</v>
+      </c>
+      <c r="Q33">
+        <v>723</v>
+      </c>
+      <c r="S33" t="s">
+        <v>5</v>
+      </c>
+      <c r="T33">
+        <f>K33-K31</f>
+        <v>109</v>
+      </c>
+      <c r="U33">
+        <f>L33-L31</f>
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <f t="shared" ref="V33" si="56">M33-M31</f>
+        <v>72</v>
+      </c>
+      <c r="W33">
+        <f t="shared" ref="W33" si="57">N33-N31</f>
+        <v>245</v>
+      </c>
+      <c r="X33">
+        <f t="shared" ref="X33" si="58">O33-O31</f>
+        <v>264</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" ref="Y33" si="59">P33-P31</f>
+        <v>138</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" ref="Z33" si="60">Q33-Q31</f>
+        <v>723</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>6</v>
       </c>
-      <c r="B16">
-        <v>258</v>
-      </c>
-      <c r="C16">
-        <v>84</v>
-      </c>
-      <c r="D16">
-        <v>172</v>
-      </c>
-      <c r="E16">
-        <v>136</v>
-      </c>
-      <c r="F16">
-        <v>350</v>
-      </c>
-      <c r="G16">
-        <v>239</v>
-      </c>
-      <c r="H16">
-        <v>364</v>
-      </c>
-      <c r="I16">
-        <v>358</v>
+      <c r="B34" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="J34" t="s">
+        <v>6</v>
+      </c>
+      <c r="K34" s="2">
+        <v>159</v>
+      </c>
+      <c r="L34" s="2">
+        <v>184</v>
+      </c>
+      <c r="M34">
+        <v>211</v>
+      </c>
+      <c r="N34">
+        <v>266</v>
+      </c>
+      <c r="O34">
+        <v>391</v>
+      </c>
+      <c r="P34">
+        <v>238</v>
+      </c>
+      <c r="Q34">
+        <v>295</v>
+      </c>
+      <c r="S34" t="s">
+        <v>6</v>
+      </c>
+      <c r="T34">
+        <f>K34-K31</f>
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <f t="shared" ref="U34" si="61">L34-L31</f>
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <f t="shared" ref="V34" si="62">M34-M31</f>
+        <v>25</v>
+      </c>
+      <c r="W34">
+        <f t="shared" ref="W34" si="63">N34-N31</f>
+        <v>33</v>
+      </c>
+      <c r="X34">
+        <f t="shared" ref="X34" si="64">O34-O31</f>
+        <v>164</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" ref="Y34" si="65">P34-P31</f>
+        <v>41</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" ref="Z34" si="66">Q34-Q31</f>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z36" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <f>(B30+B23+B16+B9+B2)/5</f>
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:H37" si="67">(C30+C23+C16+C9+C2)/5</f>
+        <v>0.01</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="67"/>
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="67"/>
+        <v>68.36</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="67"/>
+        <v>6648.9579999999987</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="S37" t="s">
+        <v>4</v>
+      </c>
+      <c r="T37">
+        <f>(T32+T25+T18+T11+T4)/5</f>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="U37">
+        <f>(U32+U25+U18+U11+U4)/5</f>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="V37">
+        <f>(V32+V25+V18+V11+V4)/5</f>
+        <v>56.2</v>
+      </c>
+      <c r="W37">
+        <f>(W32+W25+W18+W11+W4)/5</f>
+        <v>102.4</v>
+      </c>
+      <c r="X37">
+        <f>(X32+X25+X18+X11+X4)/5</f>
+        <v>153.19999999999999</v>
+      </c>
+      <c r="Y37">
+        <f>(Y32+Y25+Y18+Y11+Y4)/5</f>
+        <v>272.39999999999998</v>
+      </c>
+      <c r="Z37">
+        <f>(Z32+Z25+Z18+Z11+Z4)/5</f>
+        <v>643.20000000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ref="B38:H41" si="68">(B31+B24+B17+B10+B3)/5</f>
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="68"/>
+        <v>0.01</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="68"/>
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="68"/>
+        <v>4.484</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="68"/>
+        <v>1682.1800000000003</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="68"/>
+        <v>5632.7339999999995</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="S38" t="s">
+        <v>5</v>
+      </c>
+      <c r="T38">
+        <f>(T33+T26+T19+T12+T5)/5</f>
+        <v>34</v>
+      </c>
+      <c r="U38">
+        <f>(U33+U26+U19+U12+U5)/5</f>
+        <v>33.6</v>
+      </c>
+      <c r="V38">
+        <f>(V33+V26+V19+V12+V5)/5</f>
+        <v>63.4</v>
+      </c>
+      <c r="W38">
+        <f>(W33+W26+W19+W12+W5)/5</f>
+        <v>161.6</v>
+      </c>
+      <c r="X38">
+        <f>(X33+X26+X19+X12+X5)/5</f>
+        <v>190.4</v>
+      </c>
+      <c r="Y38">
+        <f>(Y33+Y26+Y19+Y12+Y5)/5</f>
+        <v>264</v>
+      </c>
+      <c r="Z38">
+        <f>(Z33+Z26+Z19+Z12+Z5)/5</f>
+        <v>877.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="68"/>
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="68"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="68"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="68"/>
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="68"/>
+        <v>0.10200000000000001</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="68"/>
+        <v>0.17200000000000001</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="68"/>
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="S39" t="s">
+        <v>6</v>
+      </c>
+      <c r="T39">
+        <f>(T34+T27+T20+T13+T6)/5</f>
+        <v>1.2</v>
+      </c>
+      <c r="U39">
+        <f>(U34+U27+U20+U13+U6)/5</f>
+        <v>4.8</v>
+      </c>
+      <c r="V39">
+        <f>(V34+V27+V20+V13+V6)/5</f>
+        <v>24.4</v>
+      </c>
+      <c r="W39">
+        <f>(W34+W27+W20+W13+W6)/5</f>
+        <v>51.8</v>
+      </c>
+      <c r="X39">
+        <f>(X34+X27+X20+X13+X6)/5</f>
+        <v>93.2</v>
+      </c>
+      <c r="Y39">
+        <f>(Y34+Y27+Y20+Y13+Y6)/5</f>
+        <v>91.6</v>
+      </c>
+      <c r="Z39">
+        <f>(Z34+Z27+Z20+Z13+Z6)/5</f>
+        <v>464.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="68"/>
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="68"/>
+        <v>1.4000000000000002E-2</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="68"/>
+        <v>2.6000000000000002E-2</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="68"/>
+        <v>3.3999999999999996E-2</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="68"/>
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="68"/>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="68"/>
+        <v>0.55999999999999994</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="68"/>
+        <v>0.60200000000000009</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="68"/>
+        <v>0.01</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="68"/>
+        <v>0.01</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="68"/>
+        <v>0.02</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="68"/>
+        <v>1.4000000000000002E-2</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="68"/>
+        <v>0.02</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="68"/>
+        <v>4.4000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>0.18</v>
+      </c>
+      <c r="C44">
+        <v>0.06</v>
+      </c>
+      <c r="D44">
+        <v>423.5</v>
+      </c>
+      <c r="E44">
+        <v>515</v>
+      </c>
+      <c r="J44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>1.38</v>
+      </c>
+      <c r="C45">
+        <v>0.44</v>
+      </c>
+      <c r="D45">
+        <v>1182.8</v>
+      </c>
+      <c r="E45">
+        <v>1983.4</v>
+      </c>
+      <c r="J45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>0.53</v>
+      </c>
+      <c r="C46">
+        <v>0.42</v>
+      </c>
+      <c r="D46">
+        <v>1732</v>
+      </c>
+      <c r="E46">
+        <v>3470.2</v>
+      </c>
+      <c r="J46" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="T5" formula="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -734,9 +3831,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
